--- a/biology/Zoologie/John_William_Douglas/John_William_Douglas.xlsx
+++ b/biology/Zoologie/John_William_Douglas/John_William_Douglas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John William Douglas est un entomologiste britannique, né le 15 novembre 1814 à Putney et mort le 28 juillet 1905 à Harlesden.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est durant son travail aux Jardins botaniques royaux de Kew qu’il commence à s’intéresser aux insectes. Parmi ses nombreuses publications, il faut citer The Natural History of the Tineinae qu’il réalise avec l’allemand Philipp Christoph Zeller (1808-1883), le britannique Henry Tibbats Stainton (1822-1892) et le suisse Heinrich Frey (1822-1890). Ce livre paraîtra en anglais, en français, en allemand et en latin. Son principal intérêt sont les microlépidoptères, il contribue néanmoins avec John Scott (1823-1888) au premier volume des British Hemiptera de 1865. Il fut président de la Société entomologique de Londres et rédacteur en chef de The Entomologist's Monthly Magazine. Il contribue grandement à la popularisation de l’entomologie, notamment par les jeunes. Sa collection, regroupant des coléoptères, des hémiptères, des macro- et des microlépidoptères, est conservée au Natural History Museum de Londres.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The World of Insects. Londres, 1856.
 Avec J. Scott. The British Hemiptera. (Vol. I, Ray. Soc. Londres, 1865)
@@ -574,7 +590,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « John William Douglas » (voir la liste des auteurs).</t>
         </is>
